--- a/Finflux Automation Excels/Client/2621-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Newcreateloan2.xlsx
+++ b/Finflux Automation Excels/Client/2621-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +310,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,6 +362,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,16 +602,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -655,7 +693,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>0.23</v>
+        <v>0.74</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -667,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>0.23</v>
+        <v>0.74</v>
       </c>
       <c r="F5" s="4">
-        <v>0.23</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -682,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,9 +737,8 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11" customWidth="1"/>
+    <col min="12" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -879,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>0.23</v>
+        <v>0.74</v>
       </c>
       <c r="K5" s="4">
-        <v>887.95</v>
+        <v>888.46</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -896,7 +933,7 @@
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4">
-        <v>887.95</v>
+        <v>888.46</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1359,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1451,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>747</v>
+        <v>434</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -1448,7 +1485,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>746</v>
+        <v>433</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
@@ -1460,7 +1497,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="4">
-        <v>23.24</v>
+        <v>23.75</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1472,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>0.23</v>
+        <v>0.74</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -1482,7 +1519,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>743</v>
+        <v>425</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>25</v>
@@ -1516,7 +1553,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>741</v>
+        <v>424</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -1550,7 +1587,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>745</v>
+        <v>432</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -1584,7 +1621,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>740</v>
+        <v>423</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
